--- a/Selenium/testData/xpath.xlsx
+++ b/Selenium/testData/xpath.xlsx
@@ -2068,7 +2068,7 @@
     <t>search_xpath</t>
   </si>
   <si>
-    <t>//input[@value='Google Search'][2]</t>
+    <t>//div[@class='FPdoLc VlcLAe']//input[@class='gNO89b']</t>
   </si>
 </sst>
 </file>
@@ -76859,7 +76859,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
